--- a/biology/Botanique/Trichomanes_bicorne/Trichomanes_bicorne.xlsx
+++ b/biology/Botanique/Trichomanes_bicorne/Trichomanes_bicorne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes bicorne est une espèce de fougères de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette fougère a les caractéristiques suivantes :
 son rhizome est assez robuste, à port cespiteux, noir et dont les racines sont nombreuses et filiformes ;
@@ -546,7 +560,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce, tant épiphyte que terrestre, est présente dans les forêts denses d'Amérique du Sud tropicale, principalement amazonienne : Brésil, Équateur, Guyana, Pérou et Venezuela, dont la Guyane.
 </t>
@@ -577,14 +593,16 @@
           <t>Historique et position taxinomique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichomanes bicorne est une espèce classée dans le sous-genre Trichomanes.
-William Jackson Hooker décrit une première fois cette espèce en 1854 à partir d'un échantillon collecté par Richard Spruce en Amazonie, dans le bassin du Río Negro[1].
-En 1861, Roelof Benjamin van den Bosch crée le genre Ptilophyllum (illégal car homonyme). La publication du reclassement des espèces qu'il a effectué n'a lieu qu'en 1919 : Trichomanes bicorne en faisait partie[2]. C'est donc le reclassement en 1875 par Karl Anton Eugen Prantl dans le genre Ptilophyllum qui prime[3].
-En 1974, Conrad Vernon Morton la place dans la section Trigonophyllum du sous-genre Achomanes du genre Trichomanes[4].
-En 1977, Rodolfo Emilio Giuseppe Pichi Sermolli la déplace dans le genre Trigonophyllum[5].
-En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes bicorne comme espèce représentative du genre Trichomanes, sous-genre Trichomanes[6].
+William Jackson Hooker décrit une première fois cette espèce en 1854 à partir d'un échantillon collecté par Richard Spruce en Amazonie, dans le bassin du Río Negro.
+En 1861, Roelof Benjamin van den Bosch crée le genre Ptilophyllum (illégal car homonyme). La publication du reclassement des espèces qu'il a effectué n'a lieu qu'en 1919 : Trichomanes bicorne en faisait partie. C'est donc le reclassement en 1875 par Karl Anton Eugen Prantl dans le genre Ptilophyllum qui prime.
+En 1974, Conrad Vernon Morton la place dans la section Trigonophyllum du sous-genre Achomanes du genre Trichomanes.
+En 1977, Rodolfo Emilio Giuseppe Pichi Sermolli la déplace dans le genre Trigonophyllum.
+En 2006, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito prennent Trichomanes bicorne comme espèce représentative du genre Trichomanes, sous-genre Trichomanes.
 Elle compte donc deux synonymes : Trigonophyllum bicorne (Hook.) Pic.Serm. et Ptilophyllum bicorne (Hook.) Prantl.
 </t>
         </is>
